--- a/Project/Diem Danh Excel/diemdanh.xlsx
+++ b/Project/Diem Danh Excel/diemdanh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3060" yWindow="2616" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3864" yWindow="3360" windowWidth="17292" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,12 +45,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -428,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -440,33 +436,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
         <v>6</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>18/5.</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>23/5.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>28/5.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2/6.</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>8/6.</t>
-        </is>
       </c>
     </row>
     <row r="2">
@@ -477,27 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -512,26 +478,6 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,22 +490,74 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Phạm Nam Giao</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lê Vũ An</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trần Thị Thúy</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nguyễn An Nhiên</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bùi Xuân Hiếu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Trần Ngọc Thảo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
